--- a/Seevision/HwTool/工作簿1.xlsx
+++ b/Seevision/HwTool/工作簿1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="13155" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6015" yWindow="2100" windowWidth="21600" windowHeight="13155" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -37,15 +37,14 @@
       <name val="宋体"/>
       <charset val="134"/>
       <family val="3"/>
-      <sz val="9"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -82,7 +81,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -426,7 +425,7 @@
   <dimension ref="A1:L436"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -552,7 +551,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L2" s="0" t="inlineStr"/>
+      <c r="L2" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/AB01.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
@@ -600,7 +604,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L3" s="0" t="inlineStr"/>
+      <c r="L3" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C1.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
@@ -648,7 +657,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L4" s="0" t="inlineStr"/>
+      <c r="L4" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C2.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
@@ -696,7 +710,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L5" s="0" t="inlineStr"/>
+      <c r="L5" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C3.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
@@ -744,7 +763,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L6" s="0" t="inlineStr"/>
+      <c r="L6" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C4.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
@@ -845,7 +869,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L8" s="0" t="inlineStr"/>
+      <c r="L8" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C6.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
@@ -893,7 +922,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L9" s="0" t="inlineStr"/>
+      <c r="L9" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C7.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
@@ -941,7 +975,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L10" s="0" t="inlineStr"/>
+      <c r="L10" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C8.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
@@ -1254,7 +1293,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L16" s="0" t="inlineStr"/>
+      <c r="L16" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C14.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
@@ -1302,7 +1346,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L17" s="0" t="inlineStr"/>
+      <c r="L17" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C15.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
@@ -1350,7 +1399,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L18" s="0" t="inlineStr"/>
+      <c r="L18" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C16.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
@@ -1398,7 +1452,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L19" s="0" t="inlineStr"/>
+      <c r="L19" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C17.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
@@ -1446,7 +1505,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L20" s="0" t="inlineStr"/>
+      <c r="L20" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C18.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
@@ -1653,7 +1717,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L24" s="0" t="inlineStr"/>
+      <c r="L24" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C22.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
@@ -2019,7 +2088,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L31" s="0" t="inlineStr"/>
+      <c r="L31" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C29.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
@@ -2067,7 +2141,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L32" s="0" t="inlineStr"/>
+      <c r="L32" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C30.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
@@ -2115,7 +2194,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L33" s="0" t="inlineStr"/>
+      <c r="L33" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C31.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
@@ -2163,7 +2247,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L34" s="0" t="inlineStr"/>
+      <c r="L34" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C32.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
@@ -2211,7 +2300,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L35" s="0" t="inlineStr"/>
+      <c r="L35" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C33.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
@@ -2312,7 +2406,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L37" s="0" t="inlineStr"/>
+      <c r="L37" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C35.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
@@ -2360,7 +2459,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L38" s="0" t="inlineStr"/>
+      <c r="L38" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C36.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
@@ -2408,7 +2512,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L39" s="0" t="inlineStr"/>
+      <c r="L39" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C37.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
@@ -2456,7 +2565,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L40" s="0" t="inlineStr"/>
+      <c r="L40" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C38.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
@@ -2504,7 +2618,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L41" s="0" t="inlineStr"/>
+      <c r="L41" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C39.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
@@ -2552,7 +2671,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L42" s="0" t="inlineStr"/>
+      <c r="L42" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C40.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
@@ -2653,7 +2777,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L44" s="0" t="inlineStr"/>
+      <c r="L44" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C42.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
@@ -2701,7 +2830,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L45" s="0" t="inlineStr"/>
+      <c r="L45" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C43.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
@@ -2749,7 +2883,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L46" s="0" t="inlineStr"/>
+      <c r="L46" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C44.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
@@ -2797,7 +2936,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L47" s="0" t="inlineStr"/>
+      <c r="L47" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C45.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
@@ -2845,7 +2989,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L48" s="0" t="inlineStr"/>
+      <c r="L48" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C46.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
@@ -2893,7 +3042,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L49" s="0" t="inlineStr"/>
+      <c r="L49" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C47.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
@@ -2941,7 +3095,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L50" s="0" t="inlineStr"/>
+      <c r="L50" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C48.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
@@ -3042,7 +3201,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L52" s="0" t="n"/>
+      <c r="L52" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C50.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
@@ -3090,7 +3254,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L53" s="0" t="n"/>
+      <c r="L53" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C51.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
@@ -3138,7 +3307,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L54" s="0" t="n"/>
+      <c r="L54" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C52.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
@@ -3186,7 +3360,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L55" s="0" t="n"/>
+      <c r="L55" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C53.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
@@ -3234,7 +3413,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L56" s="0" t="n"/>
+      <c r="L56" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C54.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
@@ -3282,7 +3466,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L57" s="0" t="n"/>
+      <c r="L57" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C55.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
@@ -3330,7 +3519,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L58" s="0" t="n"/>
+      <c r="L58" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C56.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
@@ -3378,7 +3572,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L59" s="0" t="n"/>
+      <c r="L59" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C58.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
@@ -3426,7 +3625,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L60" s="0" t="n"/>
+      <c r="L60" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C59.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
@@ -3474,7 +3678,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L61" s="0" t="n"/>
+      <c r="L61" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C60.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
@@ -3522,7 +3731,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L62" s="0" t="n"/>
+      <c r="L62" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C69.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
@@ -3570,7 +3784,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L63" s="0" t="n"/>
+      <c r="L63" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C70.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
@@ -3618,7 +3837,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L64" s="0" t="n"/>
+      <c r="L64" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C71.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
@@ -3666,7 +3890,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L65" s="0" t="n"/>
+      <c r="L65" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C72.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
@@ -3714,7 +3943,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L66" s="0" t="n"/>
+      <c r="L66" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C73.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
@@ -3762,7 +3996,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L67" s="0" t="n"/>
+      <c r="L67" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C74.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
@@ -3810,7 +4049,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L68" s="0" t="n"/>
+      <c r="L68" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C88.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="n">
@@ -3858,7 +4102,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L69" s="0" t="n"/>
+      <c r="L69" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C89.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
@@ -3906,7 +4155,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L70" s="0" t="n"/>
+      <c r="L70" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C91.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="n">
@@ -3954,7 +4208,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L71" s="0" t="n"/>
+      <c r="L71" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C93.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="n">
@@ -4002,7 +4261,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L72" s="0" t="n"/>
+      <c r="L72" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C94.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="n">
@@ -4050,7 +4314,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L73" s="0" t="n"/>
+      <c r="L73" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C95.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
@@ -4098,7 +4367,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L74" s="0" t="n"/>
+      <c r="L74" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C170.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="n">
@@ -4146,7 +4420,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L75" s="0" t="n"/>
+      <c r="L75" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C181.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="n">
@@ -4194,7 +4473,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L76" s="0" t="n"/>
+      <c r="L76" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C312.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="n">
@@ -4242,7 +4526,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L77" s="0" t="n"/>
+      <c r="L77" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C472.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
@@ -4290,7 +4579,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L78" s="0" t="n"/>
+      <c r="L78" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C800.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="n">
@@ -4338,7 +4632,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L79" s="0" t="n"/>
+      <c r="L79" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C801.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="n">
@@ -4386,7 +4685,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L80" s="0" t="n"/>
+      <c r="L80" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C802.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="n">
@@ -4434,7 +4738,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L81" s="0" t="n"/>
+      <c r="L81" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C803.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="n">
@@ -4482,7 +4791,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L82" s="0" t="n"/>
+      <c r="L82" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C804.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="n">
@@ -4530,7 +4844,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L83" s="0" t="n"/>
+      <c r="L83" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C805.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="n">
@@ -4578,7 +4897,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L84" s="0" t="n"/>
+      <c r="L84" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C806.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="n">
@@ -4626,7 +4950,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L85" s="0" t="n"/>
+      <c r="L85" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C807.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="n">
@@ -4674,7 +5003,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L86" s="0" t="n"/>
+      <c r="L86" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C808.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="n">
@@ -4722,7 +5056,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L87" s="0" t="n"/>
+      <c r="L87" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C809.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="n">
@@ -4770,7 +5109,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L88" s="0" t="n"/>
+      <c r="L88" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C810.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="n">
@@ -4818,7 +5162,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L89" s="0" t="n"/>
+      <c r="L89" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C811.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="n">
@@ -4866,7 +5215,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L90" s="0" t="n"/>
+      <c r="L90" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C812.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="n">
@@ -4914,7 +5268,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L91" s="0" t="n"/>
+      <c r="L91" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C813.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="n">
@@ -4962,7 +5321,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L92" s="0" t="n"/>
+      <c r="L92" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C814.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="n">
@@ -5010,7 +5374,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L93" s="0" t="n"/>
+      <c r="L93" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C815.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="n">
@@ -5058,7 +5427,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L94" s="0" t="n"/>
+      <c r="L94" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C816.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="n">
@@ -5106,7 +5480,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L95" s="0" t="n"/>
+      <c r="L95" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C817.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="n">
@@ -5154,7 +5533,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L96" s="0" t="n"/>
+      <c r="L96" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C818.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="n">
@@ -5202,7 +5586,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L97" s="0" t="n"/>
+      <c r="L97" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C819.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="n">
@@ -5250,7 +5639,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L98" s="0" t="n"/>
+      <c r="L98" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C820.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="n">
@@ -5298,7 +5692,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L99" s="0" t="n"/>
+      <c r="L99" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C821.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="n">
@@ -5346,7 +5745,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L100" s="0" t="n"/>
+      <c r="L100" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C822.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="n">
@@ -5394,7 +5798,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L101" s="0" t="n"/>
+      <c r="L101" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C823.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="n">
@@ -5442,7 +5851,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L102" s="0" t="n"/>
+      <c r="L102" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C824.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="n">
@@ -5490,7 +5904,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L103" s="0" t="n"/>
+      <c r="L103" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C825.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="n">
@@ -5538,7 +5957,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L104" s="0" t="n"/>
+      <c r="L104" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C826.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="n">
@@ -5586,7 +6010,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L105" s="0" t="n"/>
+      <c r="L105" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C827.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="n">
@@ -5634,7 +6063,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L106" s="0" t="n"/>
+      <c r="L106" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C828.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="n">
@@ -5682,7 +6116,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L107" s="0" t="n"/>
+      <c r="L107" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C829.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="n">
@@ -5730,7 +6169,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L108" s="0" t="n"/>
+      <c r="L108" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C830.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="n">
@@ -5778,7 +6222,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L109" s="0" t="n"/>
+      <c r="L109" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C831.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="n">
@@ -5826,7 +6275,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L110" s="0" t="n"/>
+      <c r="L110" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C832.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="n">
@@ -5874,7 +6328,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L111" s="0" t="n"/>
+      <c r="L111" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C833.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="n">
@@ -5922,7 +6381,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L112" s="0" t="n"/>
+      <c r="L112" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C834.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="n">
@@ -5970,7 +6434,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L113" s="0" t="n"/>
+      <c r="L113" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C835.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="n">
@@ -6018,7 +6487,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L114" s="0" t="n"/>
+      <c r="L114" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C836.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="n">
@@ -6066,7 +6540,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L115" s="0" t="n"/>
+      <c r="L115" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C837.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="n">
@@ -6114,7 +6593,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L116" s="0" t="n"/>
+      <c r="L116" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C838.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="n">
@@ -6162,7 +6646,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L117" s="0" t="n"/>
+      <c r="L117" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C839.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="n">
@@ -6210,7 +6699,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L118" s="0" t="n"/>
+      <c r="L118" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C840.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="n">
@@ -6258,7 +6752,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L119" s="0" t="n"/>
+      <c r="L119" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C841.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="n">
@@ -6306,7 +6805,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L120" s="0" t="n"/>
+      <c r="L120" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C846.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="n">
@@ -6354,7 +6858,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L121" s="0" t="n"/>
+      <c r="L121" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C847.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="n">
@@ -6402,7 +6911,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L122" s="0" t="n"/>
+      <c r="L122" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C848.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="n">
@@ -6450,7 +6964,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L123" s="0" t="n"/>
+      <c r="L123" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C850.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="n">
@@ -6498,7 +7017,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L124" s="0" t="n"/>
+      <c r="L124" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C900.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="n">
@@ -6546,7 +7070,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L125" s="0" t="n"/>
+      <c r="L125" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C901.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="n">
@@ -6594,7 +7123,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L126" s="0" t="n"/>
+      <c r="L126" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C902.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="n">
@@ -6642,7 +7176,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L127" s="0" t="n"/>
+      <c r="L127" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C903.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="n">
@@ -6690,7 +7229,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L128" s="0" t="n"/>
+      <c r="L128" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C904.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="n">
@@ -6738,7 +7282,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L129" s="0" t="n"/>
+      <c r="L129" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C905.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="n">
@@ -6786,7 +7335,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L130" s="0" t="n"/>
+      <c r="L130" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C906.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="n">
@@ -6834,7 +7388,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L131" s="0" t="n"/>
+      <c r="L131" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C907.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="n">
@@ -6882,7 +7441,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L132" s="0" t="n"/>
+      <c r="L132" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C908.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="n">
@@ -6930,7 +7494,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L133" s="0" t="n"/>
+      <c r="L133" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C909.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="n">
@@ -6978,7 +7547,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L134" s="0" t="n"/>
+      <c r="L134" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C910.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="n">
@@ -7026,7 +7600,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L135" s="0" t="n"/>
+      <c r="L135" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C911.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="n">
@@ -7074,7 +7653,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L136" s="0" t="n"/>
+      <c r="L136" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C912.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="n">
@@ -7122,7 +7706,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L137" s="0" t="n"/>
+      <c r="L137" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C913.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="n">
@@ -7170,7 +7759,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L138" s="0" t="n"/>
+      <c r="L138" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C914.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="n">
@@ -7218,7 +7812,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L139" s="0" t="n"/>
+      <c r="L139" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/C915.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="n">
@@ -7266,7 +7865,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L140" s="0" t="n"/>
+      <c r="L140" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/CD23.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="n">
@@ -7314,7 +7918,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L141" s="0" t="n"/>
+      <c r="L141" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/CM1.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="n">
@@ -7362,7 +7971,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L142" s="0" t="n"/>
+      <c r="L142" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/CM2.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="n">
@@ -7410,7 +8024,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L143" s="0" t="n"/>
+      <c r="L143" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/CM3.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="0" t="n">
@@ -7458,7 +8077,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L144" s="0" t="n"/>
+      <c r="L144" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/CM4.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="0" t="n">
@@ -7506,7 +8130,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L145" s="0" t="n"/>
+      <c r="L145" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/CM5.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="0" t="n">
@@ -7554,7 +8183,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L146" s="0" t="n"/>
+      <c r="L146" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/CM11.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="0" t="n">
@@ -7602,7 +8236,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L147" s="0" t="n"/>
+      <c r="L147" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/CM12.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="0" t="n">
@@ -7650,7 +8289,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L148" s="0" t="n"/>
+      <c r="L148" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/CM31.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="0" t="n">
@@ -7698,7 +8342,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L149" s="0" t="n"/>
+      <c r="L149" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/CM32.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="0" t="n">
@@ -7746,7 +8395,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L150" s="0" t="n"/>
+      <c r="L150" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/CM33.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="0" t="n">
@@ -7794,7 +8448,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L151" s="0" t="n"/>
+      <c r="L151" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/CM34.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="0" t="n">
@@ -7842,7 +8501,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L152" s="0" t="n"/>
+      <c r="L152" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/CM35.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="0" t="n">
@@ -7890,7 +8554,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L153" s="0" t="n"/>
+      <c r="L153" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/CM36.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="0" t="n">
@@ -7938,7 +8607,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L154" s="0" t="n"/>
+      <c r="L154" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/CM37.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="0" t="n">
@@ -7986,7 +8660,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L155" s="0" t="n"/>
+      <c r="L155" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/CM38.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="0" t="n">
@@ -8034,7 +8713,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L156" s="0" t="n"/>
+      <c r="L156" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/CM39.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="0" t="n">
@@ -8082,7 +8766,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L157" s="0" t="n"/>
+      <c r="L157" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/CM40.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="0" t="n">
@@ -8130,7 +8819,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L158" s="0" t="n"/>
+      <c r="L158" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/CM41.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="0" t="n">
@@ -8178,7 +8872,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L159" s="0" t="n"/>
+      <c r="L159" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/CM42.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="0" t="n">
@@ -8226,7 +8925,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L160" s="0" t="n"/>
+      <c r="L160" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/CM43.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="0" t="n">
@@ -8274,7 +8978,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L161" s="0" t="n"/>
+      <c r="L161" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/CM44.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="0" t="n">
@@ -8322,7 +9031,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L162" s="0" t="n"/>
+      <c r="L162" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/CM45.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="0" t="n">
@@ -8370,7 +9084,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L163" s="0" t="n"/>
+      <c r="L163" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/CM51.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="0" t="n">
@@ -8418,7 +9137,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L164" s="0" t="n"/>
+      <c r="L164" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/CM52.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="0" t="n">
@@ -8466,7 +9190,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L165" s="0" t="n"/>
+      <c r="L165" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/CM53.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="0" t="n">
@@ -8514,7 +9243,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L166" s="0" t="n"/>
+      <c r="L166" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/CM54.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="0" t="n">
@@ -8562,7 +9296,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L167" s="0" t="n"/>
+      <c r="L167" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/CM55.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="0" t="n">
@@ -8610,7 +9349,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L168" s="0" t="n"/>
+      <c r="L168" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/CM56.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="0" t="n">
@@ -8658,7 +9402,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L169" s="0" t="n"/>
+      <c r="L169" s="0" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="0" t="n">
@@ -8706,7 +9450,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L170" s="0" t="n"/>
+      <c r="L170" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/D1.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="0" t="n">
@@ -8754,7 +9503,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L171" s="0" t="n"/>
+      <c r="L171" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/D5.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="0" t="n">
@@ -8802,7 +9556,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L172" s="0" t="n"/>
+      <c r="L172" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/D6.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="0" t="n">
@@ -8850,7 +9609,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L173" s="0" t="n"/>
+      <c r="L173" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/D13.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="0" t="n">
@@ -8898,7 +9662,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L174" s="0" t="n"/>
+      <c r="L174" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/D14.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="0" t="n">
@@ -8946,7 +9715,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L175" s="0" t="n"/>
+      <c r="L175" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/D15.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="0" t="n">
@@ -8994,7 +9768,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L176" s="0" t="n"/>
+      <c r="L176" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/D16.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="0" t="n">
@@ -9042,7 +9821,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L177" s="0" t="n"/>
+      <c r="L177" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/D17.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="0" t="n">
@@ -9090,7 +9874,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L178" s="0" t="n"/>
+      <c r="L178" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/D18.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="0" t="n">
@@ -9138,7 +9927,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L179" s="0" t="n"/>
+      <c r="L179" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/D19.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="0" t="n">
@@ -9186,7 +9980,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L180" s="0" t="n"/>
+      <c r="L180" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/D20.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="0" t="n">
@@ -9234,7 +10033,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L181" s="0" t="n"/>
+      <c r="L181" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/EF45.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="0" t="n">
@@ -9282,7 +10086,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L182" s="0" t="n"/>
+      <c r="L182" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/GH67.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="0" t="n">
@@ -9330,7 +10139,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L183" s="0" t="n"/>
+      <c r="L183" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/IJ89.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="0" t="n">
@@ -9378,7 +10192,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L184" s="0" t="n"/>
+      <c r="L184" s="0" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="0" t="n">
@@ -9426,7 +10240,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L185" s="0" t="n"/>
+      <c r="L185" s="0" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="0" t="n">
@@ -9474,7 +10288,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L186" s="0" t="n"/>
+      <c r="L186" s="0" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="0" t="n">
@@ -9522,7 +10336,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L187" s="0" t="n"/>
+      <c r="L187" s="0" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="0" t="n">
@@ -9570,7 +10384,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L188" s="0" t="n"/>
+      <c r="L188" s="0" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="0" t="n">
@@ -9618,7 +10432,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L189" s="0" t="n"/>
+      <c r="L189" s="0" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="0" t="n">
@@ -9666,7 +10480,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L190" s="0" t="n"/>
+      <c r="L190" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/KL10.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="0" t="n">
@@ -9714,7 +10533,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L191" s="0" t="n"/>
+      <c r="L191" s="0" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="0" t="n">
@@ -9762,7 +10581,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L192" s="0" t="n"/>
+      <c r="L192" s="0" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="0" t="n">
@@ -9810,7 +10629,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L193" s="0" t="n"/>
+      <c r="L193" s="0" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="0" t="n">
@@ -9858,7 +10677,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L194" s="0" t="n"/>
+      <c r="L194" s="0" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="0" t="n">
@@ -9906,7 +10725,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L195" s="0" t="n"/>
+      <c r="L195" s="0" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="0" t="n">
@@ -9954,7 +10773,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L196" s="0" t="n"/>
+      <c r="L196" s="0" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="0" t="n">
@@ -10002,7 +10821,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L197" s="0" t="n"/>
+      <c r="L197" s="0" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="0" t="n">
@@ -10050,7 +10869,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L198" s="0" t="n"/>
+      <c r="L198" s="0" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="0" t="n">
@@ -10098,7 +10917,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L199" s="0" t="n"/>
+      <c r="L199" s="0" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="0" t="n">
@@ -10146,7 +10965,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L200" s="0" t="n"/>
+      <c r="L200" s="0" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="0" t="n">
@@ -10194,7 +11013,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L201" s="0" t="n"/>
+      <c r="L201" s="0" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="0" t="n">
@@ -10242,7 +11061,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L202" s="0" t="n"/>
+      <c r="L202" s="0" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="0" t="n">
@@ -10290,7 +11109,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L203" s="0" t="n"/>
+      <c r="L203" s="0" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="0" t="n">
@@ -10338,7 +11157,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L204" s="0" t="n"/>
+      <c r="L204" s="0" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="0" t="n">
@@ -10386,7 +11205,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L205" s="0" t="n"/>
+      <c r="L205" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/MN11.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="0" t="n">
@@ -10434,7 +11258,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L206" s="0" t="n"/>
+      <c r="L206" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/OP12.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="0" t="n">
@@ -10482,7 +11311,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L207" s="0" t="n"/>
+      <c r="L207" s="0" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="0" t="n">
@@ -10530,7 +11359,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L208" s="0" t="n"/>
+      <c r="L208" s="0" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="0" t="n">
@@ -10578,7 +11407,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L209" s="0" t="n"/>
+      <c r="L209" s="0" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="0" t="n">
@@ -10626,7 +11455,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L210" s="0" t="n"/>
+      <c r="L210" s="0" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="0" t="n">
@@ -10674,7 +11503,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L211" s="0" t="n"/>
+      <c r="L211" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/QR13.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="0" t="n">
@@ -10722,7 +11556,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L212" s="0" t="n"/>
+      <c r="L212" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R1.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="0" t="n">
@@ -10770,7 +11609,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L213" s="0" t="n"/>
+      <c r="L213" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R2.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="0" t="n">
@@ -10818,7 +11662,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L214" s="0" t="n"/>
+      <c r="L214" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R3.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="0" t="n">
@@ -10866,7 +11715,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L215" s="0" t="n"/>
+      <c r="L215" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R4.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="0" t="n">
@@ -10914,7 +11768,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L216" s="0" t="n"/>
+      <c r="L216" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R5.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="0" t="n">
@@ -10962,7 +11821,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L217" s="0" t="n"/>
+      <c r="L217" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R6.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="0" t="n">
@@ -11010,7 +11874,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L218" s="0" t="n"/>
+      <c r="L218" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R7.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="0" t="n">
@@ -11058,7 +11927,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L219" s="0" t="n"/>
+      <c r="L219" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R8.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="0" t="n">
@@ -11106,7 +11980,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L220" s="0" t="n"/>
+      <c r="L220" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R9.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="0" t="n">
@@ -11154,7 +12033,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L221" s="0" t="n"/>
+      <c r="L221" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R10.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="0" t="n">
@@ -11202,7 +12086,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L222" s="0" t="n"/>
+      <c r="L222" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R11.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="0" t="n">
@@ -11250,7 +12139,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L223" s="0" t="n"/>
+      <c r="L223" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R12.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="0" t="n">
@@ -11298,7 +12192,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L224" s="0" t="n"/>
+      <c r="L224" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R13.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="0" t="n">
@@ -11346,7 +12245,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L225" s="0" t="n"/>
+      <c r="L225" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R14.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="0" t="n">
@@ -11394,7 +12298,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L226" s="0" t="n"/>
+      <c r="L226" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R15.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="0" t="n">
@@ -11442,7 +12351,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L227" s="0" t="n"/>
+      <c r="L227" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R16.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="0" t="n">
@@ -11490,7 +12404,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L228" s="0" t="n"/>
+      <c r="L228" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R17.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="0" t="n">
@@ -11538,7 +12457,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L229" s="0" t="n"/>
+      <c r="L229" s="0" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="0" t="n">
@@ -11586,7 +12505,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L230" s="0" t="n"/>
+      <c r="L230" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R19.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="0" t="n">
@@ -11634,7 +12558,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L231" s="0" t="n"/>
+      <c r="L231" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R20.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="0" t="n">
@@ -11682,7 +12611,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L232" s="0" t="n"/>
+      <c r="L232" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R21.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="0" t="n">
@@ -11730,7 +12664,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L233" s="0" t="n"/>
+      <c r="L233" s="0" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="0" t="n">
@@ -11778,7 +12712,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L234" s="0" t="n"/>
+      <c r="L234" s="0" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="0" t="n">
@@ -11826,7 +12760,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L235" s="0" t="n"/>
+      <c r="L235" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R24.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="0" t="n">
@@ -11874,7 +12813,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L236" s="0" t="n"/>
+      <c r="L236" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R25.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="0" t="n">
@@ -11922,7 +12866,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L237" s="0" t="n"/>
+      <c r="L237" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R26.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="0" t="n">
@@ -11970,7 +12919,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L238" s="0" t="n"/>
+      <c r="L238" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R27.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="0" t="n">
@@ -12018,7 +12972,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L239" s="0" t="n"/>
+      <c r="L239" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R28.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="0" t="n">
@@ -12066,7 +13025,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L240" s="0" t="n"/>
+      <c r="L240" s="0" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="0" t="n">
@@ -12114,7 +13073,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L241" s="0" t="n"/>
+      <c r="L241" s="0" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="0" t="n">
@@ -12162,7 +13121,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L242" s="0" t="n"/>
+      <c r="L242" s="0" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="0" t="n">
@@ -12210,7 +13169,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L243" s="0" t="n"/>
+      <c r="L243" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R32.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="0" t="n">
@@ -12258,7 +13222,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L244" s="0" t="n"/>
+      <c r="L244" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R33.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="0" t="n">
@@ -12306,7 +13275,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L245" s="0" t="n"/>
+      <c r="L245" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R34.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="0" t="n">
@@ -12354,7 +13328,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L246" s="0" t="n"/>
+      <c r="L246" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R35.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="0" t="n">
@@ -12402,7 +13381,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L247" s="0" t="n"/>
+      <c r="L247" s="0" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="0" t="n">
@@ -12450,7 +13429,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L248" s="0" t="n"/>
+      <c r="L248" s="0" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="0" t="n">
@@ -12498,7 +13477,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L249" s="0" t="n"/>
+      <c r="L249" s="0" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="0" t="n">
@@ -12546,7 +13525,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L250" s="0" t="n"/>
+      <c r="L250" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R39.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="0" t="n">
@@ -12594,7 +13578,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L251" s="0" t="n"/>
+      <c r="L251" s="0" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="0" t="n">
@@ -12642,7 +13626,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L252" s="0" t="n"/>
+      <c r="L252" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R41.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="0" t="n">
@@ -12690,7 +13679,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L253" s="0" t="n"/>
+      <c r="L253" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R42.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="0" t="n">
@@ -12738,7 +13732,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L254" s="0" t="n"/>
+      <c r="L254" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R43.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="0" t="n">
@@ -12786,7 +13785,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L255" s="0" t="n"/>
+      <c r="L255" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R44.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="0" t="n">
@@ -12834,7 +13838,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L256" s="0" t="n"/>
+      <c r="L256" s="0" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="0" t="n">
@@ -12882,7 +13886,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L257" s="0" t="n"/>
+      <c r="L257" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R47.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="0" t="n">
@@ -12930,7 +13939,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L258" s="0" t="n"/>
+      <c r="L258" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R48.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="0" t="n">
@@ -12978,7 +13992,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L259" s="0" t="n"/>
+      <c r="L259" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R49.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="0" t="n">
@@ -13026,7 +14045,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L260" s="0" t="n"/>
+      <c r="L260" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R50.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="0" t="n">
@@ -13074,7 +14098,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L261" s="0" t="n"/>
+      <c r="L261" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R51.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="0" t="n">
@@ -13122,7 +14151,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L262" s="0" t="n"/>
+      <c r="L262" s="0" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="0" t="n">
@@ -13170,7 +14199,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L263" s="0" t="n"/>
+      <c r="L263" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R57.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="0" t="n">
@@ -13218,7 +14252,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L264" s="0" t="n"/>
+      <c r="L264" s="0" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="0" t="n">
@@ -13266,7 +14300,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L265" s="0" t="n"/>
+      <c r="L265" s="0" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="0" t="n">
@@ -13314,7 +14348,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L266" s="0" t="n"/>
+      <c r="L266" s="0" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="0" t="n">
@@ -13362,7 +14396,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L267" s="0" t="n"/>
+      <c r="L267" s="0" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="0" t="n">
@@ -13410,7 +14444,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L268" s="0" t="n"/>
+      <c r="L268" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R68.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="0" t="n">
@@ -13458,7 +14497,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L269" s="0" t="n"/>
+      <c r="L269" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R70.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="0" t="n">
@@ -13506,7 +14550,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L270" s="0" t="n"/>
+      <c r="L270" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R71.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="0" t="n">
@@ -13554,7 +14603,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L271" s="0" t="n"/>
+      <c r="L271" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R72.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="0" t="n">
@@ -13602,7 +14656,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L272" s="0" t="n"/>
+      <c r="L272" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R74.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="0" t="n">
@@ -13650,7 +14709,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L273" s="0" t="n"/>
+      <c r="L273" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R88.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="0" t="n">
@@ -13698,7 +14762,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L274" s="0" t="n"/>
+      <c r="L274" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R92.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="0" t="n">
@@ -13746,7 +14815,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L275" s="0" t="n"/>
+      <c r="L275" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R93.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="0" t="n">
@@ -13794,7 +14868,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L276" s="0" t="n"/>
+      <c r="L276" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R97.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="0" t="n">
@@ -13842,7 +14921,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L277" s="0" t="n"/>
+      <c r="L277" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R98.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="0" t="n">
@@ -13890,7 +14974,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L278" s="0" t="n"/>
+      <c r="L278" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R99.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="0" t="n">
@@ -13938,7 +15027,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L279" s="0" t="n"/>
+      <c r="L279" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R105.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="0" t="n">
@@ -13986,7 +15080,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L280" s="0" t="n"/>
+      <c r="L280" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R106.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="0" t="n">
@@ -14034,7 +15133,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L281" s="0" t="n"/>
+      <c r="L281" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R107.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="0" t="n">
@@ -14082,7 +15186,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L282" s="0" t="n"/>
+      <c r="L282" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R108.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="0" t="n">
@@ -14130,7 +15239,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L283" s="0" t="n"/>
+      <c r="L283" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R109.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="0" t="n">
@@ -14178,7 +15292,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L284" s="0" t="n"/>
+      <c r="L284" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R190.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="0" t="n">
@@ -14226,7 +15345,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L285" s="0" t="n"/>
+      <c r="L285" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R191.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="0" t="n">
@@ -14274,7 +15398,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L286" s="0" t="n"/>
+      <c r="L286" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R800.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="0" t="n">
@@ -14322,7 +15451,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L287" s="0" t="n"/>
+      <c r="L287" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R801.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="0" t="n">
@@ -14370,7 +15504,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L288" s="0" t="n"/>
+      <c r="L288" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R802.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="0" t="n">
@@ -14418,7 +15557,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L289" s="0" t="n"/>
+      <c r="L289" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R803.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="0" t="n">
@@ -14466,7 +15610,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L290" s="0" t="n"/>
+      <c r="L290" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R804.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="0" t="n">
@@ -14514,7 +15663,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L291" s="0" t="n"/>
+      <c r="L291" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R805.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="0" t="n">
@@ -14562,7 +15716,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L292" s="0" t="n"/>
+      <c r="L292" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R806.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="0" t="n">
@@ -14610,7 +15769,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L293" s="0" t="n"/>
+      <c r="L293" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R807.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="0" t="n">
@@ -14658,7 +15822,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L294" s="0" t="n"/>
+      <c r="L294" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R808.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="0" t="n">
@@ -14706,7 +15875,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L295" s="0" t="n"/>
+      <c r="L295" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R809.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="0" t="n">
@@ -14754,7 +15928,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L296" s="0" t="n"/>
+      <c r="L296" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R810.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="0" t="n">
@@ -14802,7 +15981,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L297" s="0" t="n"/>
+      <c r="L297" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R811.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="0" t="n">
@@ -14850,7 +16034,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L298" s="0" t="n"/>
+      <c r="L298" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R812.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="0" t="n">
@@ -14898,7 +16087,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L299" s="0" t="n"/>
+      <c r="L299" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R813.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="0" t="n">
@@ -14946,7 +16140,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L300" s="0" t="n"/>
+      <c r="L300" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R814.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="0" t="n">
@@ -14994,7 +16193,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L301" s="0" t="n"/>
+      <c r="L301" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R815.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="0" t="n">
@@ -15042,7 +16246,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L302" s="0" t="n"/>
+      <c r="L302" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R816.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="0" t="n">
@@ -15090,7 +16299,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L303" s="0" t="n"/>
+      <c r="L303" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R817.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="0" t="n">
@@ -15138,7 +16352,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L304" s="0" t="n"/>
+      <c r="L304" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R818.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="0" t="n">
@@ -15186,7 +16405,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L305" s="0" t="n"/>
+      <c r="L305" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R819.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="0" t="n">
@@ -15234,7 +16458,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L306" s="0" t="n"/>
+      <c r="L306" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R820.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="0" t="n">
@@ -15282,7 +16511,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L307" s="0" t="n"/>
+      <c r="L307" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R822.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="0" t="n">
@@ -15330,7 +16564,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L308" s="0" t="n"/>
+      <c r="L308" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R872.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="0" t="n">
@@ -15378,7 +16617,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L309" s="0" t="n"/>
+      <c r="L309" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R879.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="0" t="n">
@@ -15426,7 +16670,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L310" s="0" t="n"/>
+      <c r="L310" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R880.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="0" t="n">
@@ -15474,7 +16723,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L311" s="0" t="n"/>
+      <c r="L311" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R900.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="0" t="n">
@@ -15522,7 +16776,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L312" s="0" t="n"/>
+      <c r="L312" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R901.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="0" t="n">
@@ -15570,7 +16829,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L313" s="0" t="n"/>
+      <c r="L313" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R902.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="0" t="n">
@@ -15618,7 +16882,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L314" s="0" t="n"/>
+      <c r="L314" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R903.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="0" t="n">
@@ -15666,7 +16935,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L315" s="0" t="n"/>
+      <c r="L315" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R904.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="0" t="n">
@@ -15714,7 +16988,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L316" s="0" t="n"/>
+      <c r="L316" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R905.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="0" t="n">
@@ -15762,7 +17041,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L317" s="0" t="n"/>
+      <c r="L317" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R906.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="0" t="n">
@@ -15810,7 +17094,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L318" s="0" t="n"/>
+      <c r="L318" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R907.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="0" t="n">
@@ -15858,7 +17147,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L319" s="0" t="n"/>
+      <c r="L319" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R908.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="0" t="n">
@@ -15906,7 +17200,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L320" s="0" t="n"/>
+      <c r="L320" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R909.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="0" t="n">
@@ -15954,7 +17253,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L321" s="0" t="n"/>
+      <c r="L321" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R910.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="0" t="n">
@@ -16002,7 +17306,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L322" s="0" t="n"/>
+      <c r="L322" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R911.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="0" t="n">
@@ -16050,7 +17359,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L323" s="0" t="n"/>
+      <c r="L323" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R912.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="0" t="n">
@@ -16098,7 +17412,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L324" s="0" t="n"/>
+      <c r="L324" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R1010.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="0" t="n">
@@ -16146,7 +17465,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L325" s="0" t="n"/>
+      <c r="L325" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/R1011.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="0" t="n">
@@ -16194,7 +17518,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L326" s="0" t="n"/>
+      <c r="L326" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/RM1.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="0" t="n">
@@ -16242,7 +17571,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L327" s="0" t="n"/>
+      <c r="L327" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/RM2.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="0" t="n">
@@ -16290,7 +17624,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L328" s="0" t="n"/>
+      <c r="L328" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/RM3.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="0" t="n">
@@ -16338,7 +17677,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L329" s="0" t="n"/>
+      <c r="L329" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/RM4.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="0" t="n">
@@ -16386,7 +17730,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L330" s="0" t="n"/>
+      <c r="L330" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/RM5.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="0" t="n">
@@ -16434,7 +17783,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L331" s="0" t="n"/>
+      <c r="L331" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/RM6.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="0" t="n">
@@ -16482,7 +17836,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L332" s="0" t="n"/>
+      <c r="L332" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/RM8.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="0" t="n">
@@ -16530,7 +17889,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L333" s="0" t="n"/>
+      <c r="L333" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/RM9.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="0" t="n">
@@ -16578,7 +17942,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L334" s="0" t="n"/>
+      <c r="L334" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/RM10.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="0" t="n">
@@ -16626,7 +17995,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L335" s="0" t="n"/>
+      <c r="L335" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/RM11.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="0" t="n">
@@ -16674,7 +18048,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L336" s="0" t="n"/>
+      <c r="L336" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/RM12.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="0" t="n">
@@ -16722,7 +18101,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L337" s="0" t="n"/>
+      <c r="L337" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/RM13.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="0" t="n">
@@ -16770,7 +18154,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L338" s="0" t="n"/>
+      <c r="L338" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/RM14.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="0" t="n">
@@ -16818,7 +18207,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L339" s="0" t="n"/>
+      <c r="L339" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/RM15.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="0" t="n">
@@ -16866,7 +18260,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L340" s="0" t="n"/>
+      <c r="L340" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/RM16.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="0" t="n">
@@ -16914,7 +18313,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L341" s="0" t="n"/>
+      <c r="L341" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/ST14.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="0" t="n">
@@ -16962,7 +18366,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L342" s="0" t="n"/>
+      <c r="L342" s="0" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="0" t="n">
@@ -17010,7 +18414,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L343" s="0" t="n"/>
+      <c r="L343" s="0" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="0" t="n">
@@ -17058,7 +18462,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L344" s="0" t="n"/>
+      <c r="L344" s="0" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="0" t="n">
@@ -17106,7 +18510,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L345" s="0" t="n"/>
+      <c r="L345" s="0" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="0" t="n">
@@ -17154,7 +18558,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L346" s="0" t="n"/>
+      <c r="L346" s="0" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="0" t="n">
@@ -17202,7 +18606,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L347" s="0" t="n"/>
+      <c r="L347" s="0" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="0" t="n">
@@ -17250,7 +18654,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L348" s="0" t="n"/>
+      <c r="L348" s="0" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="0" t="n">
@@ -17298,7 +18702,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L349" s="0" t="n"/>
+      <c r="L349" s="0" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="0" t="n">
@@ -17346,7 +18750,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L350" s="0" t="n"/>
+      <c r="L350" s="0" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="0" t="n">
@@ -17394,7 +18798,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L351" s="0" t="n"/>
+      <c r="L351" s="0" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="0" t="n">
@@ -17442,7 +18846,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L352" s="0" t="n"/>
+      <c r="L352" s="0" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="0" t="n">
@@ -17490,7 +18894,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L353" s="0" t="n"/>
+      <c r="L353" s="0" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="0" t="n">
@@ -17538,7 +18942,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L354" s="0" t="n"/>
+      <c r="L354" s="0" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="0" t="n">
@@ -17586,7 +18990,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L355" s="0" t="n"/>
+      <c r="L355" s="0" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="0" t="n">
@@ -17634,7 +19038,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L356" s="0" t="n"/>
+      <c r="L356" s="0" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="0" t="n">
@@ -17682,7 +19086,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L357" s="0" t="n"/>
+      <c r="L357" s="0" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="0" t="n">
@@ -17730,7 +19134,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L358" s="0" t="n"/>
+      <c r="L358" s="0" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="0" t="n">
@@ -17778,7 +19182,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L359" s="0" t="n"/>
+      <c r="L359" s="0" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="0" t="n">
@@ -17826,7 +19230,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L360" s="0" t="n"/>
+      <c r="L360" s="0" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="0" t="n">
@@ -17874,7 +19278,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L361" s="0" t="n"/>
+      <c r="L361" s="0" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="0" t="n">
@@ -17922,7 +19326,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L362" s="0" t="n"/>
+      <c r="L362" s="0" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="0" t="n">
@@ -17970,7 +19374,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L363" s="0" t="n"/>
+      <c r="L363" s="0" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="0" t="n">
@@ -18018,7 +19422,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L364" s="0" t="n"/>
+      <c r="L364" s="0" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="0" t="n">
@@ -18066,7 +19470,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L365" s="0" t="n"/>
+      <c r="L365" s="0" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="0" t="n">
@@ -18114,7 +19518,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L366" s="0" t="n"/>
+      <c r="L366" s="0" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="0" t="n">
@@ -18162,7 +19566,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L367" s="0" t="n"/>
+      <c r="L367" s="0" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="0" t="n">
@@ -18210,7 +19614,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L368" s="0" t="n"/>
+      <c r="L368" s="0" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="0" t="n">
@@ -18258,7 +19662,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L369" s="0" t="n"/>
+      <c r="L369" s="0" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="0" t="n">
@@ -18306,7 +19710,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L370" s="0" t="n"/>
+      <c r="L370" s="0" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" s="0" t="n">
@@ -18354,7 +19758,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L371" s="0" t="n"/>
+      <c r="L371" s="0" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" s="0" t="n">
@@ -18402,7 +19806,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L372" s="0" t="n"/>
+      <c r="L372" s="0" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" s="0" t="n">
@@ -18450,7 +19854,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L373" s="0" t="n"/>
+      <c r="L373" s="0" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" s="0" t="n">
@@ -18498,7 +19902,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L374" s="0" t="n"/>
+      <c r="L374" s="0" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" s="0" t="n">
@@ -18546,7 +19950,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L375" s="0" t="n"/>
+      <c r="L375" s="0" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" s="0" t="n">
@@ -18594,7 +19998,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L376" s="0" t="n"/>
+      <c r="L376" s="0" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" s="0" t="n">
@@ -18642,7 +20046,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L377" s="0" t="n"/>
+      <c r="L377" s="0" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" s="0" t="n">
@@ -18690,7 +20094,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L378" s="0" t="n"/>
+      <c r="L378" s="0" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" s="0" t="n">
@@ -18738,7 +20142,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L379" s="0" t="n"/>
+      <c r="L379" s="0" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" s="0" t="n">
@@ -18786,7 +20190,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L380" s="0" t="n"/>
+      <c r="L380" s="0" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" s="0" t="n">
@@ -18834,7 +20238,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L381" s="0" t="n"/>
+      <c r="L381" s="0" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" s="0" t="n">
@@ -18882,7 +20286,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L382" s="0" t="n"/>
+      <c r="L382" s="0" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" s="0" t="n">
@@ -18930,7 +20334,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L383" s="0" t="n"/>
+      <c r="L383" s="0" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" s="0" t="n">
@@ -18978,7 +20382,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L384" s="0" t="n"/>
+      <c r="L384" s="0" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" s="0" t="n">
@@ -19026,7 +20430,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L385" s="0" t="n"/>
+      <c r="L385" s="0" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" s="0" t="n">
@@ -19074,7 +20478,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L386" s="0" t="n"/>
+      <c r="L386" s="0" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" s="0" t="n">
@@ -19122,7 +20526,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L387" s="0" t="n"/>
+      <c r="L387" s="0" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" s="0" t="n">
@@ -19170,7 +20574,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L388" s="0" t="n"/>
+      <c r="L388" s="0" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" s="0" t="n">
@@ -19218,7 +20622,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L389" s="0" t="n"/>
+      <c r="L389" s="0" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" s="0" t="n">
@@ -19266,7 +20670,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L390" s="0" t="n"/>
+      <c r="L390" s="0" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" s="0" t="n">
@@ -19314,7 +20718,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L391" s="0" t="n"/>
+      <c r="L391" s="0" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" s="0" t="n">
@@ -19362,7 +20766,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L392" s="0" t="n"/>
+      <c r="L392" s="0" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" s="0" t="n">
@@ -19410,7 +20814,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L393" s="0" t="n"/>
+      <c r="L393" s="0" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" s="0" t="n">
@@ -19458,7 +20862,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L394" s="0" t="n"/>
+      <c r="L394" s="0" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" s="0" t="n">
@@ -19506,7 +20910,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L395" s="0" t="n"/>
+      <c r="L395" s="0" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" s="0" t="n">
@@ -19554,7 +20958,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L396" s="0" t="n"/>
+      <c r="L396" s="0" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" s="0" t="n">
@@ -19602,7 +21006,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L397" s="0" t="n"/>
+      <c r="L397" s="0" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" s="0" t="n">
@@ -19650,7 +21054,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L398" s="0" t="n"/>
+      <c r="L398" s="0" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" s="0" t="n">
@@ -19698,7 +21102,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L399" s="0" t="n"/>
+      <c r="L399" s="0" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" s="0" t="n">
@@ -19746,7 +21150,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L400" s="0" t="n"/>
+      <c r="L400" s="0" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" s="0" t="n">
@@ -19794,7 +21198,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L401" s="0" t="n"/>
+      <c r="L401" s="0" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" s="0" t="n">
@@ -19842,7 +21246,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L402" s="0" t="n"/>
+      <c r="L402" s="0" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" s="0" t="n">
@@ -19890,7 +21294,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L403" s="0" t="n"/>
+      <c r="L403" s="0" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" s="0" t="n">
@@ -19938,7 +21342,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L404" s="0" t="n"/>
+      <c r="L404" s="0" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" s="0" t="n">
@@ -19986,7 +21390,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L405" s="0" t="n"/>
+      <c r="L405" s="0" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" s="0" t="n">
@@ -20034,7 +21438,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L406" s="0" t="n"/>
+      <c r="L406" s="0" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" s="0" t="n">
@@ -20082,7 +21486,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L407" s="0" t="n"/>
+      <c r="L407" s="0" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" s="0" t="n">
@@ -20130,7 +21534,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L408" s="0" t="n"/>
+      <c r="L408" s="0" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" s="0" t="n">
@@ -20178,7 +21582,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L409" s="0" t="n"/>
+      <c r="L409" s="0" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" s="0" t="n">
@@ -20226,7 +21630,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L410" s="0" t="n"/>
+      <c r="L410" s="0" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" s="0" t="n">
@@ -20274,7 +21678,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L411" s="0" t="n"/>
+      <c r="L411" s="0" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" s="0" t="n">
@@ -20322,7 +21726,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L412" s="0" t="n"/>
+      <c r="L412" s="0" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" s="0" t="n">
@@ -20370,7 +21774,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L413" s="0" t="n"/>
+      <c r="L413" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/UV15.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="0" t="n">
@@ -20418,7 +21827,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L414" s="0" t="n"/>
+      <c r="L414" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/V8.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="0" t="n">
@@ -20466,7 +21880,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L415" s="0" t="n"/>
+      <c r="L415" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/V9.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="0" t="n">
@@ -20514,7 +21933,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L416" s="0" t="n"/>
+      <c r="L416" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/V10.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="0" t="n">
@@ -20562,7 +21986,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L417" s="0" t="n"/>
+      <c r="L417" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/V11.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="0" t="n">
@@ -20610,7 +22039,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L418" s="0" t="n"/>
+      <c r="L418" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/V12.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="0" t="n">
@@ -20658,7 +22092,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L419" s="0" t="n"/>
+      <c r="L419" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/V13.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="0" t="n">
@@ -20706,7 +22145,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L420" s="0" t="n"/>
+      <c r="L420" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/V14.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="0" t="n">
@@ -20754,7 +22198,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L421" s="0" t="n"/>
+      <c r="L421" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/V22.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="0" t="n">
@@ -20802,7 +22251,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L422" s="0" t="n"/>
+      <c r="L422" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/V37.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="0" t="n">
@@ -20850,7 +22304,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L423" s="0" t="n"/>
+      <c r="L423" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/V38.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="0" t="n">
@@ -20898,7 +22357,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L424" s="0" t="n"/>
+      <c r="L424" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/V800.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="0" t="n">
@@ -20946,7 +22410,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L425" s="0" t="n"/>
+      <c r="L425" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/V801.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="0" t="n">
@@ -20994,7 +22463,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L426" s="0" t="n"/>
+      <c r="L426" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/V802.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="0" t="n">
@@ -21042,7 +22516,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L427" s="0" t="n"/>
+      <c r="L427" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/V803.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="0" t="n">
@@ -21090,7 +22569,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L428" s="0" t="n"/>
+      <c r="L428" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/V804.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="0" t="n">
@@ -21138,7 +22622,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L429" s="0" t="n"/>
+      <c r="L429" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/V805.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="0" t="n">
@@ -21186,7 +22675,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L430" s="0" t="n"/>
+      <c r="L430" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/WX16.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="0" t="n">
@@ -21234,7 +22728,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L431" s="0" t="n"/>
+      <c r="L431" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/XY17.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="0" t="n">
@@ -21282,7 +22781,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L432" s="0" t="n"/>
+      <c r="L432" s="0" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" s="0" t="n">
@@ -21330,7 +22829,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L433" s="0" t="n"/>
+      <c r="L433" s="0" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" s="0" t="n">
@@ -21378,7 +22877,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L434" s="0" t="n"/>
+      <c r="L434" s="0" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" s="0" t="n">
@@ -21426,7 +22925,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L435" s="0" t="n"/>
+      <c r="L435" s="0" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" s="0" t="n">
@@ -21474,7 +22973,12 @@
           <t>No</t>
         </is>
       </c>
-      <c r="L436" s="0" t="n"/>
+      <c r="L436" s="0" t="inlineStr">
+        <is>
+          <t>已截取，待核对
+ ./screenshot/YZ18.jpeg</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
